--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1452.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1452.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.543498730892163</v>
+        <v>1.18345320224762</v>
       </c>
       <c r="B1">
-        <v>1.733213057639203</v>
+        <v>2.298865795135498</v>
       </c>
       <c r="C1">
-        <v>2.102501916864682</v>
+        <v>4.549642086029053</v>
       </c>
       <c r="D1">
-        <v>3.573229111906274</v>
+        <v>3.455256462097168</v>
       </c>
       <c r="E1">
-        <v>0.6681677071126054</v>
+        <v>1.205423831939697</v>
       </c>
     </row>
   </sheetData>
